--- a/OAMLab/151_会议材料/20221030-运维实验室预约-11月暨首次使用宣讲/3、OAMLab.运维实验室.端口映射与连接方式.20221028.1930.xlsx
+++ b/OAMLab/151_会议材料/20221030-运维实验室预约-11月暨首次使用宣讲/3、OAMLab.运维实验室.端口映射与连接方式.20221028.1930.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A80544B-A24F-4E63-B7D0-817D60615A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58876219-1B12-470A-B306-DCF3229D5BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-011-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-011-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-019-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-019-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-241-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-241-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-249-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-249-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,14 +206,6 @@
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssh -p 10111 root@xxx.xxx.xxx.xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssh -p 10191 root@xxx.xxx.xxx.xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -246,14 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ssh -p 12411 root@xxx.xxx.xxx.xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssh -p 12491 root@xxx.xxx.xxx.xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运维实验室
 端口映射关系与连接方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +229,230 @@
   <si>
     <t>1、申请者应遵守国家法律法规，不得涉及黄赌毒骗及攻击行为，应洁身自好。
 2、使用任何api-scan或者nmap等扫描操作会被视为网络攻击行为。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ssh -p 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 root@xxx.xxx.xxx.xxx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ssh -p 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 root@xxx.xxx.xxx.xxx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>241</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ssh -p 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>241</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 root@xxx.xxx.xxx.xxx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>249</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ssh -p 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>249</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 root@xxx.xxx.xxx.xxx</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +460,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +486,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -382,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +604,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -413,12 +627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -427,6 +635,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,7 +980,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -785,21 +996,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -807,98 +1018,98 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="13" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="C4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
-        <v>19</v>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="15">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="9">
-        <v>11</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="H6" s="2">
         <v>22</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2">
         <v>80</v>
@@ -906,14 +1117,14 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2">
         <v>8080</v>
@@ -921,97 +1132,97 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="F13" s="15">
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H13" s="2">
         <v>22</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2">
         <v>80</v>
@@ -1019,14 +1230,14 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15" s="2">
         <v>8080</v>
@@ -1034,152 +1245,152 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="11">
         <v>4</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="9">
+      <c r="B23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="11">
         <v>3</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="9">
+      <c r="E23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="11">
         <v>41</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="2">
         <v>22</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="2">
         <v>80</v>
@@ -1187,14 +1398,14 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H25" s="2">
         <v>8080</v>
@@ -1202,97 +1413,97 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
       <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="2" t="s">
+      <c r="H29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="11">
+        <v>49</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="9">
-        <v>49</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="H30" s="2">
         <v>22</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H31" s="2">
         <v>80</v>
@@ -1300,14 +1511,14 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H32" s="2">
         <v>8080</v>
@@ -1315,152 +1526,152 @@
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="7"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="7"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="11">
         <v>24</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="B40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="9">
+      <c r="E40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="15">
         <v>241</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H40" s="2">
         <v>22</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H41" s="2">
         <v>80</v>
@@ -1468,14 +1679,14 @@
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H42" s="2">
         <v>8080</v>
@@ -1483,97 +1694,97 @@
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="9">
+      <c r="E47" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="15">
         <v>249</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H47" s="2">
         <v>22</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H48" s="2">
         <v>80</v>
@@ -1581,14 +1792,14 @@
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="15"/>
       <c r="G49" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H49" s="2">
         <v>8080</v>
@@ -1596,92 +1807,67 @@
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="15"/>
       <c r="G52" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="15"/>
       <c r="G53" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I53" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A19"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="B6:B19"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="E30:E36"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="C23:C36"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A40:A53"/>
-    <mergeCell ref="B40:B53"/>
-    <mergeCell ref="D40:D46"/>
-    <mergeCell ref="E40:E46"/>
-    <mergeCell ref="F40:F46"/>
-    <mergeCell ref="D47:D53"/>
-    <mergeCell ref="E47:E53"/>
-    <mergeCell ref="F47:F53"/>
-    <mergeCell ref="C40:C53"/>
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="D4:F5"/>
     <mergeCell ref="B4:B5"/>
@@ -1698,6 +1884,31 @@
     <mergeCell ref="E23:E29"/>
     <mergeCell ref="F23:F29"/>
     <mergeCell ref="D30:D36"/>
+    <mergeCell ref="A40:A53"/>
+    <mergeCell ref="B40:B53"/>
+    <mergeCell ref="D40:D46"/>
+    <mergeCell ref="E40:E46"/>
+    <mergeCell ref="F40:F46"/>
+    <mergeCell ref="D47:D53"/>
+    <mergeCell ref="E47:E53"/>
+    <mergeCell ref="F47:F53"/>
+    <mergeCell ref="C40:C53"/>
+    <mergeCell ref="E30:E36"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="C23:C36"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A19"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="E6:E12"/>
+    <mergeCell ref="F6:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
